--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/F8-Asgr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/F8-Asgr2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.883886666666666</v>
+        <v>0.413144</v>
       </c>
       <c r="H2">
-        <v>5.65166</v>
+        <v>1.239432</v>
       </c>
       <c r="I2">
-        <v>0.7298568945019563</v>
+        <v>0.4553782032534783</v>
       </c>
       <c r="J2">
-        <v>0.7298568945019563</v>
+        <v>0.4553782032534782</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.1878165930822222</v>
+        <v>0.04118894193866666</v>
       </c>
       <c r="R2">
-        <v>1.69034933774</v>
+        <v>0.370700477448</v>
       </c>
       <c r="S2">
-        <v>0.7298568945019563</v>
+        <v>0.4553782032534783</v>
       </c>
       <c r="T2">
-        <v>0.7298568945019563</v>
+        <v>0.4553782032534782</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>1.060377</v>
       </c>
       <c r="I3">
-        <v>0.1369373713601492</v>
+        <v>0.3895918235379703</v>
       </c>
       <c r="J3">
-        <v>0.1369373713601492</v>
+        <v>0.3895918235379702</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,13 +629,13 @@
         <v>0.03523856628366667</v>
       </c>
       <c r="R3">
-        <v>0.3171470965529999</v>
+        <v>0.3171470965530001</v>
       </c>
       <c r="S3">
-        <v>0.1369373713601492</v>
+        <v>0.3895918235379703</v>
       </c>
       <c r="T3">
-        <v>0.1369373713601492</v>
+        <v>0.3895918235379702</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.343827</v>
+        <v>0.1406516666666666</v>
       </c>
       <c r="H4">
-        <v>1.031481</v>
+        <v>0.421955</v>
       </c>
       <c r="I4">
-        <v>0.1332057341378945</v>
+        <v>0.1550299732085515</v>
       </c>
       <c r="J4">
-        <v>0.1332057341378944</v>
+        <v>0.1550299732085515</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.034278291201</v>
+        <v>0.01402245544388889</v>
       </c>
       <c r="R4">
-        <v>0.308504620809</v>
+        <v>0.126202098995</v>
       </c>
       <c r="S4">
-        <v>0.1332057341378945</v>
+        <v>0.1550299732085515</v>
       </c>
       <c r="T4">
-        <v>0.1332057341378944</v>
+        <v>0.1550299732085515</v>
       </c>
     </row>
   </sheetData>
